--- a/data/input/DOC_20231011_AR77_withNPOCandTN20231220rerun_edited.xlsx
+++ b/data/input/DOC_20231011_AR77_withNPOCandTN20231220rerun_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94DFA57-6F43-4A42-BDA6-4803ADA8B782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033E7C79-AF2B-4608-95F1-D9E1CE62AE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1950" windowWidth="27990" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="83">
   <si>
     <t>L1</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>COC originally mislabled as N9 duplicate</t>
+  </si>
+  <si>
+    <t>Anomalously high N for inshore station but consistent with cruise hypothesis dissolving cold pool</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,57 +476,17 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="107">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -707,366 +670,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9C5BCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9C5BCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9F5FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1533,18 +1152,20 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" customWidth="1"/>
   </cols>
@@ -2711,252 +2332,252 @@
         <v>9.0097157684006692</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="29">
+    <row r="22" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
         <v>20231014</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="5">
         <v>739</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="4">
         <v>139</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="F22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="4">
         <v>16</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="4">
         <v>3</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="4">
         <v>95</v>
       </c>
-      <c r="J22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="32" t="s">
+      <c r="J22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="31">
-        <v>1</v>
-      </c>
-      <c r="M22" s="31">
-        <v>1</v>
-      </c>
-      <c r="O22" s="34">
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="30">
         <v>45258</v>
       </c>
-      <c r="P22" s="33" t="s">
+      <c r="P22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="31">
         <v>78.620519190195836</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="31">
         <v>13.8278980698064</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="29">
         <f t="shared" si="0"/>
         <v>5.6856449760694954</v>
       </c>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="29">
+    <row r="23" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
         <v>20231014</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="5">
         <v>739</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="4">
         <v>139</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="29">
+      <c r="F23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4">
         <v>16</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="4">
         <v>9</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="4">
         <v>22</v>
       </c>
-      <c r="J23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="32" t="s">
+      <c r="J23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="31">
-        <v>1</v>
-      </c>
-      <c r="M23" s="31">
-        <v>1</v>
-      </c>
-      <c r="O23" s="34">
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="30">
         <v>45257</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="31">
         <v>77.608765921490772</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="31">
         <v>7.7799819885504897</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="29">
         <f t="shared" si="0"/>
         <v>9.975442878364591</v>
       </c>
-      <c r="U23" s="33" t="s">
+      <c r="U23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="V23" s="33" t="s">
+      <c r="V23" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="29">
+    <row r="24" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
         <v>20231014</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="5">
         <v>739</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="4">
         <v>139</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="29">
+      <c r="F24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="4">
         <v>16</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="4">
         <v>9</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="4">
         <v>22</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="31">
-        <v>1</v>
-      </c>
-      <c r="M24" s="31">
-        <v>1</v>
-      </c>
-      <c r="O24" s="34">
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="30">
         <v>45257</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="31">
         <v>75.174331973229471</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="31">
         <v>7.7871392856880703</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="29">
         <f t="shared" si="0"/>
         <v>9.6536519015900826</v>
       </c>
-      <c r="U24" s="33" t="s">
+      <c r="U24" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="V24" s="33" t="s">
+      <c r="V24" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="29">
+    <row r="25" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
         <v>20231014</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="5">
         <v>739</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="4">
         <v>139</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="29">
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4">
         <v>16</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="4">
         <v>18</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="4">
         <v>3</v>
       </c>
-      <c r="J25" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="32" t="s">
+      <c r="J25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="31">
-        <v>1</v>
-      </c>
-      <c r="M25" s="31">
-        <v>1</v>
-      </c>
-      <c r="O25" s="34">
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="30">
         <v>45257</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="31">
         <v>76.523703933122874</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="31">
         <v>5.9863091718206496</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="29">
         <f t="shared" si="0"/>
         <v>12.783119237032205</v>
       </c>
-      <c r="U25" s="33" t="s">
+      <c r="U25" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="V25" s="33" t="s">
+      <c r="V25" s="29" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3156,7 +2777,9 @@
       <c r="J29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="L29" s="7">
         <v>1</v>
       </c>
@@ -3321,7 +2944,9 @@
       <c r="J32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="L32" s="7">
         <v>1</v>
       </c>
@@ -3566,99 +3191,99 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I2 A3:A36">
-    <cfRule type="beginsWith" dxfId="54" priority="126" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="53" priority="126" operator="beginsWith" text="r">
       <formula>LEFT(A2,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="127" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="52" priority="127" operator="beginsWith" text="f">
       <formula>LEFT(A2,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="128" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="51" priority="128" operator="beginsWith" text="n">
       <formula>LEFT(A2,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="129" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="50" priority="129" operator="beginsWith" text="y">
       <formula>LEFT(A2,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="50" priority="130">
+    <cfRule type="containsBlanks" dxfId="49" priority="130">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:E35 G3:I35">
-    <cfRule type="beginsWith" dxfId="49" priority="18" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="48" priority="18" operator="beginsWith" text="r">
       <formula>LEFT(B3,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="19" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="47" priority="19" operator="beginsWith" text="f">
       <formula>LEFT(B3,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="20" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="46" priority="20" operator="beginsWith" text="n">
       <formula>LEFT(B3,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="21" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="45" priority="21" operator="beginsWith" text="y">
       <formula>LEFT(B3,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="45" priority="22">
+    <cfRule type="containsBlanks" dxfId="44" priority="22">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F36">
-    <cfRule type="beginsWith" dxfId="44" priority="8" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="43" priority="8" operator="beginsWith" text="r">
       <formula>LEFT(F3,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="9" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="42" priority="9" operator="beginsWith" text="f">
       <formula>LEFT(F3,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="10" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="41" priority="10" operator="beginsWith" text="n">
       <formula>LEFT(F3,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="11" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="40" priority="11" operator="beginsWith" text="y">
       <formula>LEFT(F3,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="40" priority="12">
+    <cfRule type="containsBlanks" dxfId="39" priority="12">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J35">
-    <cfRule type="cellIs" dxfId="39" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="108" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="109" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="110" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="111" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="112" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="34" priority="113">
+    <cfRule type="containsBlanks" dxfId="33" priority="113">
       <formula>LEN(TRIM(J2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:M36">
-    <cfRule type="beginsWith" dxfId="33" priority="13" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="32" priority="13" operator="beginsWith" text="r">
       <formula>LEFT(L2,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="14" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="31" priority="14" operator="beginsWith" text="f">
       <formula>LEFT(L2,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="15" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="30" priority="15" operator="beginsWith" text="n">
       <formula>LEFT(L2,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="16" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="29" priority="16" operator="beginsWith" text="y">
       <formula>LEFT(L2,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="29" priority="17">
+    <cfRule type="containsBlanks" dxfId="28" priority="17">
       <formula>LEN(TRIM(L2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5702,90 +5327,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I2 A3:A36">
-    <cfRule type="beginsWith" dxfId="106" priority="22" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="25" priority="22" operator="beginsWith" text="r">
       <formula>LEFT(A2,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="105" priority="23" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="24" priority="23" operator="beginsWith" text="f">
       <formula>LEFT(A2,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="104" priority="24" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="23" priority="24" operator="beginsWith" text="n">
       <formula>LEFT(A2,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="103" priority="25" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="22" priority="25" operator="beginsWith" text="y">
       <formula>LEFT(A2,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="102" priority="26">
+    <cfRule type="containsBlanks" dxfId="21" priority="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:E35 G3:I35">
-    <cfRule type="beginsWith" dxfId="101" priority="11" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="20" priority="11" operator="beginsWith" text="r">
       <formula>LEFT(B3,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="12" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="19" priority="12" operator="beginsWith" text="f">
       <formula>LEFT(B3,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="99" priority="13" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="18" priority="13" operator="beginsWith" text="n">
       <formula>LEFT(B3,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="14" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="17" priority="14" operator="beginsWith" text="y">
       <formula>LEFT(B3,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="97" priority="15">
+    <cfRule type="containsBlanks" dxfId="16" priority="15">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F36">
-    <cfRule type="beginsWith" dxfId="96" priority="1" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="15" priority="1" operator="beginsWith" text="r">
       <formula>LEFT(F3,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="95" priority="2" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="14" priority="2" operator="beginsWith" text="f">
       <formula>LEFT(F3,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="3" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="13" priority="3" operator="beginsWith" text="n">
       <formula>LEFT(F3,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="93" priority="4" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="12" priority="4" operator="beginsWith" text="y">
       <formula>LEFT(F3,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="92" priority="5">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J35">
-    <cfRule type="cellIs" dxfId="91" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="86" priority="21">
+    <cfRule type="containsBlanks" dxfId="5" priority="21">
       <formula>LEN(TRIM(J2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:M36">
-    <cfRule type="beginsWith" dxfId="85" priority="6" operator="beginsWith" text="r">
+    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="r">
       <formula>LEFT(L2,LEN("r"))="r"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="84" priority="7" operator="beginsWith" text="f">
+    <cfRule type="beginsWith" dxfId="3" priority="7" operator="beginsWith" text="f">
       <formula>LEFT(L2,LEN("f"))="f"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="83" priority="8" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="2" priority="8" operator="beginsWith" text="n">
       <formula>LEFT(L2,LEN("n"))="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="9" operator="beginsWith" text="y">
+    <cfRule type="beginsWith" dxfId="1" priority="9" operator="beginsWith" text="y">
       <formula>LEFT(L2,LEN("y"))="y"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="81" priority="10">
+    <cfRule type="containsBlanks" dxfId="0" priority="10">
       <formula>LEN(TRIM(L2))=0</formula>
     </cfRule>
   </conditionalFormatting>
